--- a/datasets_single/kpcb_vabo.xlsx
+++ b/datasets_single/kpcb_vabo.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B7EE3A-4BE3-8940-8D40-71F101C19B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B86C87-2AD3-2D43-9E5C-A3C8B0A984A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -38,6 +51,9 @@
   </si>
   <si>
     <t>vabo</t>
+  </si>
+  <si>
+    <t>vabo_s</t>
   </si>
 </sst>
 </file>
@@ -885,15 +901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -926,8 +945,12 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>42*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -941,10 +964,14 @@
         <v>9.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F58" si="0">42*E3</f>
+        <v>1.9950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -958,10 +985,14 @@
         <v>10.5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -975,10 +1006,14 @@
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -992,10 +1027,14 @@
         <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1009,10 +1048,14 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1026,10 +1069,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1043,10 +1090,14 @@
         <v>24</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1062,8 +1113,12 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1077,10 +1132,14 @@
         <v>9.66</v>
       </c>
       <c r="E11" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.9950000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1094,10 +1153,14 @@
         <v>10.66</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1111,10 +1174,14 @@
         <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1128,10 +1195,14 @@
         <v>15</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1145,10 +1216,14 @@
         <v>24</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1162,10 +1237,14 @@
         <v>24</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1179,10 +1258,14 @@
         <v>24</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1198,8 +1281,12 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1213,10 +1300,14 @@
         <v>9.17</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1970000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1230,10 +1321,14 @@
         <v>9.17</v>
       </c>
       <c r="E20" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1247,10 +1342,14 @@
         <v>10.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1264,10 +1363,14 @@
         <v>18</v>
       </c>
       <c r="E22" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1281,10 +1384,14 @@
         <v>24</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1298,10 +1405,14 @@
         <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1315,10 +1426,14 @@
         <v>24</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -1334,8 +1449,12 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1349,10 +1468,14 @@
         <v>9.33</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.1970000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -1366,10 +1489,14 @@
         <v>9.5</v>
       </c>
       <c r="E28" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -1383,10 +1510,14 @@
         <v>10.33</v>
       </c>
       <c r="E29" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1400,10 +1531,14 @@
         <v>20</v>
       </c>
       <c r="E30" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4</v>
       </c>
@@ -1417,10 +1552,14 @@
         <v>24</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1434,10 +1573,14 @@
         <v>24</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1451,10 +1594,14 @@
         <v>24</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -1470,8 +1617,12 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -1485,10 +1636,14 @@
         <v>9.33</v>
       </c>
       <c r="E35" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1502,10 +1657,14 @@
         <v>10.33</v>
       </c>
       <c r="E36" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -1519,10 +1678,14 @@
         <v>16.329999999999998</v>
       </c>
       <c r="E37" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -1536,10 +1699,14 @@
         <v>24</v>
       </c>
       <c r="E38" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -1553,10 +1720,14 @@
         <v>24</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -1570,10 +1741,14 @@
         <v>24</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1589,8 +1764,12 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1604,10 +1783,14 @@
         <v>9.36</v>
       </c>
       <c r="E42" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -1621,10 +1804,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E43" s="1">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -1638,10 +1825,14 @@
         <v>15</v>
       </c>
       <c r="E44" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>6</v>
       </c>
@@ -1655,10 +1846,14 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1672,10 +1867,14 @@
         <v>24</v>
       </c>
       <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1689,10 +1888,14 @@
         <v>24</v>
       </c>
       <c r="E47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -1708,8 +1911,12 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1723,10 +1930,14 @@
         <v>9.6</v>
       </c>
       <c r="E49">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1740,10 +1951,14 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
@@ -1757,10 +1972,14 @@
         <v>14.75</v>
       </c>
       <c r="E51">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1774,10 +1993,14 @@
         <v>24</v>
       </c>
       <c r="E52">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -1791,10 +2014,14 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1810,8 +2037,12 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8</v>
       </c>
@@ -1825,10 +2056,14 @@
         <v>10.33</v>
       </c>
       <c r="E55">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>4.9874999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8</v>
       </c>
@@ -1842,10 +2077,14 @@
         <v>15.75</v>
       </c>
       <c r="E56">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1859,10 +2098,14 @@
         <v>24</v>
       </c>
       <c r="E57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -1876,7 +2119,11 @@
         <v>24</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.95</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
       </c>
     </row>
   </sheetData>

--- a/datasets_single/kpcb_vabo.xlsx
+++ b/datasets_single/kpcb_vabo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B86C87-2AD3-2D43-9E5C-A3C8B0A984A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0D55E-D2EC-D84F-9EA8-C9EAFFE93666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
